--- a/aspnet-core/src/GB.Opera.HttpApi.Host/wwwroot/uploads/ImportPricesSample.xlsx
+++ b/aspnet-core/src/GB.Opera.HttpApi.Host/wwwroot/uploads/ImportPricesSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCEA7B9-5F23-4741-950F-9F165D6B57E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C85113C-6DDB-4FA2-84BF-E8CF14B29A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72019A12-3955-4FC5-9318-9A7C9E925466}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="381">
   <si>
     <t>id</t>
   </si>
@@ -1230,9 +1230,6 @@
   </si>
   <si>
     <t>ALISTITHMAR REIT</t>
-  </si>
-  <si>
-    <t>Saudi Stock Exchange</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1722,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1801,10 +1798,10 @@
         <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>381</v>
+        <v>13</v>
       </c>
       <c r="F2" s="14">
-        <v>45550</v>
+        <v>45575</v>
       </c>
       <c r="G2" s="8">
         <v>23.4</v>
@@ -1842,10 +1839,10 @@
         <v>48</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>381</v>
+        <v>13</v>
       </c>
       <c r="F3" s="14">
-        <v>45550</v>
+        <v>45575</v>
       </c>
       <c r="G3" s="8">
         <v>20.8</v>
@@ -1870,34 +1867,86 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="8"/>
+      <c r="A4" s="6">
+        <v>132</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2114</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14">
+        <v>45575</v>
+      </c>
+      <c r="G4" s="8">
+        <v>16.25</v>
+      </c>
+      <c r="H4" s="8">
+        <v>25.355599999999999</v>
+      </c>
+      <c r="I4" s="8">
+        <v>41.25</v>
+      </c>
+      <c r="J4" s="8">
+        <v>47.25</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1365515</v>
+      </c>
+      <c r="L4" s="9">
+        <v>5896</v>
+      </c>
+      <c r="M4" s="8">
+        <v>5866215636.6400003</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="8"/>
+      <c r="A5" s="6">
+        <v>132</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2114</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="14">
+        <v>45575</v>
+      </c>
+      <c r="G5" s="8">
+        <v>123.35</v>
+      </c>
+      <c r="H5" s="8">
+        <v>54.36</v>
+      </c>
+      <c r="I5" s="8">
+        <v>89.36</v>
+      </c>
+      <c r="J5" s="8">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="K5" s="9">
+        <v>365214</v>
+      </c>
+      <c r="L5" s="9">
+        <v>15636</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1515615.25</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -3307,15 +3356,15 @@
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K112" s="2">
         <f>SUM(K2:K110)</f>
-        <v>9724262</v>
+        <v>11454991</v>
       </c>
       <c r="L112" s="2">
         <f>SUM(L2:L110)</f>
-        <v>17562</v>
+        <v>39094</v>
       </c>
       <c r="M112" s="2">
         <f>SUM(M2:M110)</f>
-        <v>233788703.17000002</v>
+        <v>6101519955.0600004</v>
       </c>
     </row>
     <row r="114" spans="3:13" x14ac:dyDescent="0.25">
@@ -3715,15 +3764,15 @@
       </c>
       <c r="D126" s="5">
         <f>SUM(K2:K5)</f>
-        <v>9724262</v>
+        <v>11454991</v>
       </c>
       <c r="E126" s="5">
         <f>SUM(L2:L5)</f>
-        <v>17562</v>
+        <v>39094</v>
       </c>
       <c r="F126" s="5">
         <f>SUM(M2:M5)</f>
-        <v>233788703.17000002</v>
+        <v>6101519955.0600004</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>92</v>
@@ -8242,7 +8291,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:J110 I115:J353">
+  <conditionalFormatting sqref="I115:J353 G2:J110">
     <cfRule type="cellIs" dxfId="1" priority="9999" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
